--- a/Document/课题研究.xlsx
+++ b/Document/课题研究.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="0" windowWidth="29880" windowHeight="19480" activeTab="3"/>
+    <workbookView xWindow="2920" yWindow="0" windowWidth="29880" windowHeight="19480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="iOS的权限管理机制" sheetId="2" r:id="rId1"/>
     <sheet name="iOS程序启动原理" sheetId="1" r:id="rId2"/>
     <sheet name="iOS App体系结构" sheetId="4" r:id="rId3"/>
     <sheet name="第三方打开本App" sheetId="5" r:id="rId4"/>
+    <sheet name="待办" sheetId="6" r:id="rId5"/>
+    <sheet name="单元测试" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="235">
   <si>
     <t>iOS程序启动原理</t>
   </si>
@@ -858,12 +860,86 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">OmniBugZapper </t>
+  </si>
+  <si>
+    <t>阶段 (里程碑) 管理</t>
+  </si>
+  <si>
+    <t>milestones</t>
+  </si>
+  <si>
+    <t>崩溃日志管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OmniCrashSorter</t>
+  </si>
+  <si>
+    <t>共享框架/库 管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xcode的Unit test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本（AppleScript)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言的使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件的管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file.xconfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug管理,Bug追踪系统 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://objccn.io/issue-22-1/</t>
+  </si>
+  <si>
+    <t>iOS项目管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计单元测试的好处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>它引入了所有 API 的二次使用 (即测试本身)。这意味着工程师们不得不花更多的时间思考一个 API 的设计，确保它在多个情况下都是工作的。其结果是，这将使得其他工程师重用 API 变得更容易，节省了未来的时间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于代码管理的一些思考</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个大的应用程序里，你会有大量的代码。有些代码是很老的了。但老并不一定意味着坏。只要你有良好的测试覆盖率，旧代码将继续正常工作。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要把时间花在“清理”那些的履行了需求并且没有拖累任何人的代码上去。这种清理过程中你能做的最好的事情就是不破坏任何东西。所以还是把这些时间花在创建新的功能上吧。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,6 +1029,30 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -971,7 +1071,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,8 +1079,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,9 +1126,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1456,9 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D143"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -2011,7 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -2515,4 +2623,151 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="D9" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="D13" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="D20" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="D28" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>